--- a/branches/main/StructureDefinition-MessageForCDSS.xlsx
+++ b/branches/main/StructureDefinition-MessageForCDSS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T18:36:24+00:00</t>
+    <t>2022-07-09T09:32:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-MessageForCDSS.xlsx
+++ b/branches/main/StructureDefinition-MessageForCDSS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T09:32:33+00:00</t>
+    <t>2022-07-14T15:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1235,44 +1235,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.00390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.0078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="15.7421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.95703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="168.1875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="168.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="42.97265625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="42.9765625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/branches/main/StructureDefinition-MessageForCDSS.xlsx
+++ b/branches/main/StructureDefinition-MessageForCDSS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T15:59:36+00:00</t>
+    <t>2022-07-14T16:27:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-MessageForCDSS.xlsx
+++ b/branches/main/StructureDefinition-MessageForCDSS.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/example/StructureDefinition/MessageForCDSS</t>
+    <t>https://joofio.github.io/obs-cdss-fhir//StructureDefinition/MessageForCDSS</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T16:27:57+00:00</t>
+    <t>2022-07-15T07:25:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -847,7 +847,7 @@
     <t>messageheader</t>
   </si>
   <si>
-    <t xml:space="preserve">MessageHeader {http://hl7.org/fhir/us/example/StructureDefinition/MessageHeaderCDSS}
+    <t xml:space="preserve">MessageHeader {https://joofio.github.io/obs-cdss-fhir//StructureDefinition/MessageHeaderCDSS}
 </t>
   </si>
   <si>
@@ -870,14 +870,14 @@
     <t>request</t>
   </si>
   <si>
-    <t>CommunicationRequest {http://hl7.org/fhir/us/example/StructureDefinition/OBSCDSSInitializer}
-Communication {http://hl7.org/fhir/us/example/StructureDefinition/OBSCDSSFinalizer}</t>
+    <t>CommunicationRequest {https://joofio.github.io/obs-cdss-fhir//StructureDefinition/OBSCDSSInitializer}
+Communication {https://joofio.github.io/obs-cdss-fhir//StructureDefinition/OBSCDSSFinalizer}</t>
   </si>
   <si>
     <t>parameter</t>
   </si>
   <si>
-    <t xml:space="preserve">Parameters {http://hl7.org/fhir/us/example/StructureDefinition/MLParameterRequest|http://hl7.org/fhir/us/example/StructureDefinition/MLParameterResponse}
+    <t xml:space="preserve">Parameters {https://joofio.github.io/obs-cdss-fhir//StructureDefinition/MLParameterRequest|https://joofio.github.io/obs-cdss-fhir//StructureDefinition/MLParameterResponse}
 </t>
   </si>
   <si>

--- a/branches/main/StructureDefinition-MessageForCDSS.xlsx
+++ b/branches/main/StructureDefinition-MessageForCDSS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T07:25:18+00:00</t>
+    <t>2022-07-15T07:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-MessageForCDSS.xlsx
+++ b/branches/main/StructureDefinition-MessageForCDSS.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://joofio.github.io/obs-cdss-fhir//StructureDefinition/MessageForCDSS</t>
+    <t>https://joofio.github.io/obs-cdss-fhir/StructureDefinition/MessageForCDSS</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T07:32:14+00:00</t>
+    <t>2022-07-15T07:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -847,7 +847,7 @@
     <t>messageheader</t>
   </si>
   <si>
-    <t xml:space="preserve">MessageHeader {https://joofio.github.io/obs-cdss-fhir//StructureDefinition/MessageHeaderCDSS}
+    <t xml:space="preserve">MessageHeader {https://joofio.github.io/obs-cdss-fhir/StructureDefinition/MessageHeaderCDSS}
 </t>
   </si>
   <si>
@@ -870,14 +870,14 @@
     <t>request</t>
   </si>
   <si>
-    <t>CommunicationRequest {https://joofio.github.io/obs-cdss-fhir//StructureDefinition/OBSCDSSInitializer}
-Communication {https://joofio.github.io/obs-cdss-fhir//StructureDefinition/OBSCDSSFinalizer}</t>
+    <t>CommunicationRequest {https://joofio.github.io/obs-cdss-fhir/StructureDefinition/OBSCDSSInitializer}
+Communication {https://joofio.github.io/obs-cdss-fhir/StructureDefinition/OBSCDSSFinalizer}</t>
   </si>
   <si>
     <t>parameter</t>
   </si>
   <si>
-    <t xml:space="preserve">Parameters {https://joofio.github.io/obs-cdss-fhir//StructureDefinition/MLParameterRequest|https://joofio.github.io/obs-cdss-fhir//StructureDefinition/MLParameterResponse}
+    <t xml:space="preserve">Parameters {https://joofio.github.io/obs-cdss-fhir/StructureDefinition/MLParameterRequest|https://joofio.github.io/obs-cdss-fhir/StructureDefinition/MLParameterResponse}
 </t>
   </si>
   <si>

--- a/branches/main/StructureDefinition-MessageForCDSS.xlsx
+++ b/branches/main/StructureDefinition-MessageForCDSS.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Message for response</t>
+    <t xml:space="preserve">Message bundle for request or response </t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T07:33:23+00:00</t>
+    <t>2022-07-18T07:59:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The message for response</t>
+    <t>The message for response or request, containing the prediction/input parameters and Communication/CommunicationRequest</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -867,7 +867,7 @@
     <t>Message</t>
   </si>
   <si>
-    <t>request</t>
+    <t>content</t>
   </si>
   <si>
     <t>CommunicationRequest {https://joofio.github.io/obs-cdss-fhir/StructureDefinition/OBSCDSSInitializer}

--- a/branches/main/StructureDefinition-MessageForCDSS.xlsx
+++ b/branches/main/StructureDefinition-MessageForCDSS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T07:59:46+00:00</t>
+    <t>2022-08-18T10:28:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-MessageForCDSS.xlsx
+++ b/branches/main/StructureDefinition-MessageForCDSS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4059" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4058" uniqueCount="318">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T12:03:44+00:00</t>
+    <t>2023-06-22T10:40:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -908,34 +908,8 @@
     <t>Bundle.entry:data.resource</t>
   </si>
   <si>
-    <t>Vital Signs
-MeasurementResultsTests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observation {https://joofio.github.io/obs-cdss-fhir/StructureDefinition/ObsResult}
-</t>
-  </si>
-  <si>
-    <t>Measurements and simple assertions</t>
-  </si>
-  <si>
-    <t>Measurements and simple assertions made about a patient, device or other subject.</t>
-  </si>
-  <si>
-    <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.component.code is the same as Observation.code, then Observation.value SHALL NOT be present (the Observation.component.value[x] holds the value). {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}obs-8:bodyStructure SHALL only be present if Observation.bodySite is not present {bodySite.exists() implies bodyStructure.empty()}</t>
-  </si>
-  <si>
-    <t>clinical.diagnostics</t>
-  </si>
-  <si>
-    <t>OBX</t>
-  </si>
-  <si>
-    <t>Entity, Role, or Act,Observation[classCode=OBS, moodCode=EVN]</t>
+    <t>Observation
+Device {https://joofio.github.io/obs-cdss-fhir/StructureDefinition/MLModel}</t>
   </si>
   <si>
     <t>Bundle.entry:data.search</t>
@@ -1363,7 +1337,7 @@
     <col min="1" max="1" width="54.32421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="15.7421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="25.25" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
@@ -1396,7 +1370,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="23.140625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="16.44140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="62.39453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="26.81640625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="42.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -10359,10 +10333,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>44</v>
@@ -11035,7 +11009,7 @@
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>280</v>
+        <v>32</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -11051,20 +11025,18 @@
         <v>32</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>282</v>
+        <v>156</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>32</v>
@@ -11122,19 +11094,19 @@
         <v>43</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>285</v>
+        <v>32</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>286</v>
+        <v>32</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>287</v>
+        <v>32</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>288</v>
+        <v>32</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>32</v>
@@ -11142,7 +11114,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>159</v>
@@ -11254,7 +11226,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>163</v>
@@ -11366,7 +11338,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>164</v>
@@ -11480,7 +11452,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>165</v>
@@ -11596,7 +11568,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>166</v>
@@ -11710,7 +11682,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>172</v>
@@ -11824,7 +11796,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>177</v>
@@ -11936,7 +11908,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>181</v>
@@ -12048,7 +12020,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>182</v>
@@ -12162,7 +12134,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>183</v>
@@ -12278,7 +12250,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>184</v>
@@ -12390,7 +12362,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>190</v>
@@ -12504,7 +12476,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>194</v>
@@ -12616,7 +12588,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>197</v>
@@ -12728,7 +12700,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>200</v>
@@ -12840,7 +12812,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>203</v>
@@ -12952,7 +12924,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>206</v>
@@ -13064,7 +13036,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>210</v>
@@ -13176,7 +13148,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>211</v>
@@ -13290,7 +13262,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>212</v>
@@ -13406,7 +13378,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>213</v>
@@ -13518,7 +13490,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>216</v>
@@ -13630,7 +13602,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>219</v>
@@ -13744,7 +13716,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>223</v>
@@ -13858,7 +13830,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>227</v>
@@ -13972,10 +13944,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13998,19 +13970,19 @@
         <v>44</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>32</v>
@@ -14059,7 +14031,7 @@
         <v>32</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>33</v>
@@ -14088,10 +14060,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14114,16 +14086,16 @@
         <v>44</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -14173,7 +14145,7 @@
         <v>32</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>33</v>
@@ -14182,7 +14154,7 @@
         <v>43</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>32</v>

--- a/branches/main/StructureDefinition-MessageForCDSS.xlsx
+++ b/branches/main/StructureDefinition-MessageForCDSS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T10:40:10+00:00</t>
+    <t>2023-06-22T11:40:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-MessageForCDSS.xlsx
+++ b/branches/main/StructureDefinition-MessageForCDSS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4058" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4058" uniqueCount="319">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T11:40:33+00:00</t>
+    <t>2023-09-10T21:33:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -131,6 +131,10 @@
   </si>
   <si>
     <t>A container for a collection of resources.</t>
+  </si>
+  <si>
+    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
+bdl-2:entry.search only when a search {(type = 'searchset') or entry.search.empty()}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;iif(resource.meta.versionId.exists(), resource.meta.versionId, '')).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}bdl-13:A subscription-notification must have a SubscriptionStatus as the first resource {type = 'subscription-notification' implies entry.first().resource.is(SubscriptionStatus)}bdl-14:entry.request.method PATCH not allowed for history {type = 'history' implies entry.request.method != 'PATCH'}bdl-15:Bundle resources where type is not transaction, transaction-response, batch, or batch-response or when the request is a POST SHALL have Bundle.entry.fullUrl populated {type='transaction' or type='transaction-response' or type='batch' or type='batch-response' or entry.all(fullUrl.exists() or request.method='POST')}bdl-16:Issue.severity for all issues within the OperationOutcome must be either 'information' or 'warning'. {issues.exists() implies (issues.issue.severity = 'information' or issues.issue.severity = 'warning')}bdl-17:Use and meaning of issues for documents has not been validated because the content will not be rendered in the document. {type = 'document' implies issues.empty()}bdl-18:Self link is required for searchsets. {type = 'searchset' implies link.where(relation = 'self' and url.exists()).exists()}bdl-3a:For collections of type document, message, searchset or collection, all entries must contain resources, and not have request or response elements {type in ('document' | 'message' | 'searchset' | 'collection') implies entry.all(resource.exists() and request.empty() and response.empty())}bdl-3b:For collections of type history, all entries must contain request or response elements, and resources if the method is POST, PUT or PATCH {type = 'history' implies entry.all(request.exists() and response.exists() and ((request.method in ('POST' | 'PATCH' | 'PUT')) = resource.exists()))}bdl-3c:For collections of type transaction or batch, all entries must contain request elements, and resources if the method is POST, PUT or PATCH {type in ('transaction' | 'batch') implies entry.all(request.method.exists() and ((request.method in ('POST' | 'PATCH' | 'PUT')) = resource.exists()))}bdl-3d:For collections of type transaction-response or batch-response, all entries must contain response elements {type in ('transaction-response' | 'batch-response') implies entry.all(response.exists())}</t>
   </si>
   <si>
     <t>infrastructure.structure</t>
@@ -1471,27 +1475,27 @@
         <v>32</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1502,7 +1506,7 @@
         <v>33</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>32</v>
@@ -1511,19 +1515,19 @@
         <v>32</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1573,13 +1577,13 @@
         <v>32</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>32</v>
@@ -1602,10 +1606,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1616,7 +1620,7 @@
         <v>33</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>32</v>
@@ -1625,16 +1629,16 @@
         <v>32</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1685,19 +1689,19 @@
         <v>32</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>32</v>
@@ -1714,10 +1718,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1728,28 +1732,28 @@
         <v>33</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>32</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1799,19 +1803,19 @@
         <v>32</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>32</v>
@@ -1828,10 +1832,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1842,7 +1846,7 @@
         <v>33</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>32</v>
@@ -1854,16 +1858,16 @@
         <v>32</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1889,13 +1893,13 @@
         <v>32</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>32</v>
@@ -1913,19 +1917,19 @@
         <v>32</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>32</v>
@@ -1942,10 +1946,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1956,28 +1960,28 @@
         <v>33</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>32</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2027,22 +2031,22 @@
         <v>32</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>32</v>
@@ -2051,15 +2055,15 @@
         <v>32</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2067,10 +2071,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>32</v>
@@ -2079,19 +2083,19 @@
         <v>32</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2102,7 +2106,7 @@
         <v>32</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T7" t="s" s="2">
         <v>32</v>
@@ -2117,13 +2121,13 @@
         <v>32</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>32</v>
@@ -2141,22 +2145,22 @@
         <v>32</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>32</v>
@@ -2170,10 +2174,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2181,31 +2185,31 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>32</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2255,22 +2259,22 @@
         <v>32</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>32</v>
@@ -2279,15 +2283,15 @@
         <v>32</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2298,7 +2302,7 @@
         <v>33</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>32</v>
@@ -2307,19 +2311,19 @@
         <v>32</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2369,19 +2373,19 @@
         <v>32</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>32</v>
@@ -2398,10 +2402,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2421,19 +2425,19 @@
         <v>32</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2483,7 +2487,7 @@
         <v>32</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>33</v>
@@ -2492,10 +2496,10 @@
         <v>34</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>32</v>
@@ -2512,10 +2516,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2526,7 +2530,7 @@
         <v>33</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>32</v>
@@ -2538,13 +2542,13 @@
         <v>32</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2595,16 +2599,16 @@
         <v>32</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>32</v>
@@ -2616,7 +2620,7 @@
         <v>32</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>32</v>
@@ -2624,14 +2628,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2650,16 +2654,16 @@
         <v>32</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2709,7 +2713,7 @@
         <v>32</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>33</v>
@@ -2721,7 +2725,7 @@
         <v>32</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>32</v>
@@ -2730,7 +2734,7 @@
         <v>32</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>32</v>
@@ -2738,14 +2742,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2758,25 +2762,25 @@
         <v>32</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>32</v>
@@ -2825,7 +2829,7 @@
         <v>32</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>33</v>
@@ -2837,7 +2841,7 @@
         <v>32</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>32</v>
@@ -2846,7 +2850,7 @@
         <v>32</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>32</v>
@@ -2854,10 +2858,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2865,10 +2869,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>32</v>
@@ -2877,16 +2881,16 @@
         <v>32</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2913,11 +2917,11 @@
         <v>32</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>32</v>
@@ -2935,19 +2939,19 @@
         <v>32</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>32</v>
@@ -2964,10 +2968,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2975,10 +2979,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>32</v>
@@ -2987,16 +2991,16 @@
         <v>32</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3047,19 +3051,19 @@
         <v>32</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>32</v>
@@ -3076,10 +3080,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3087,28 +3091,28 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>34</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>32</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3147,17 +3151,17 @@
         <v>32</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>33</v>
@@ -3169,7 +3173,7 @@
         <v>32</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>32</v>
@@ -3186,10 +3190,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3200,7 +3204,7 @@
         <v>33</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>32</v>
@@ -3212,13 +3216,13 @@
         <v>32</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3269,16 +3273,16 @@
         <v>32</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>32</v>
@@ -3290,7 +3294,7 @@
         <v>32</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>32</v>
@@ -3298,14 +3302,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3324,16 +3328,16 @@
         <v>32</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3383,7 +3387,7 @@
         <v>32</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>33</v>
@@ -3395,7 +3399,7 @@
         <v>32</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>32</v>
@@ -3404,7 +3408,7 @@
         <v>32</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>32</v>
@@ -3412,14 +3416,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3432,25 +3436,25 @@
         <v>32</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>32</v>
@@ -3499,7 +3503,7 @@
         <v>32</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>33</v>
@@ -3511,7 +3515,7 @@
         <v>32</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>32</v>
@@ -3520,7 +3524,7 @@
         <v>32</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>32</v>
@@ -3528,10 +3532,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3551,16 +3555,16 @@
         <v>32</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3611,7 +3615,7 @@
         <v>32</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>33</v>
@@ -3623,7 +3627,7 @@
         <v>32</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>32</v>
@@ -3640,10 +3644,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3654,7 +3658,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>32</v>
@@ -3663,19 +3667,19 @@
         <v>32</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3725,19 +3729,19 @@
         <v>32</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>32</v>
@@ -3754,10 +3758,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3768,7 +3772,7 @@
         <v>33</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>32</v>
@@ -3777,16 +3781,16 @@
         <v>32</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3837,16 +3841,16 @@
         <v>32</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>32</v>
@@ -3866,10 +3870,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3880,7 +3884,7 @@
         <v>33</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>32</v>
@@ -3889,16 +3893,16 @@
         <v>32</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3949,19 +3953,19 @@
         <v>32</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>32</v>
@@ -3978,10 +3982,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3992,7 +3996,7 @@
         <v>33</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>32</v>
@@ -4004,13 +4008,13 @@
         <v>32</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4061,16 +4065,16 @@
         <v>32</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>32</v>
@@ -4082,7 +4086,7 @@
         <v>32</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>32</v>
@@ -4090,14 +4094,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4116,16 +4120,16 @@
         <v>32</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4175,7 +4179,7 @@
         <v>32</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>33</v>
@@ -4187,7 +4191,7 @@
         <v>32</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>32</v>
@@ -4196,7 +4200,7 @@
         <v>32</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>32</v>
@@ -4204,14 +4208,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4224,25 +4228,25 @@
         <v>32</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>32</v>
@@ -4291,7 +4295,7 @@
         <v>32</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>33</v>
@@ -4303,7 +4307,7 @@
         <v>32</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>32</v>
@@ -4312,7 +4316,7 @@
         <v>32</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>32</v>
@@ -4320,10 +4324,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4334,7 +4338,7 @@
         <v>33</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>32</v>
@@ -4343,19 +4347,19 @@
         <v>32</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4381,13 +4385,13 @@
         <v>32</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>32</v>
@@ -4405,19 +4409,19 @@
         <v>32</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>32</v>
@@ -4434,10 +4438,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4448,7 +4452,7 @@
         <v>33</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>32</v>
@@ -4457,19 +4461,19 @@
         <v>32</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4519,19 +4523,19 @@
         <v>32</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>32</v>
@@ -4548,10 +4552,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4562,7 +4566,7 @@
         <v>33</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>32</v>
@@ -4571,16 +4575,16 @@
         <v>32</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4631,19 +4635,19 @@
         <v>32</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>32</v>
@@ -4660,10 +4664,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4674,7 +4678,7 @@
         <v>33</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>32</v>
@@ -4686,13 +4690,13 @@
         <v>32</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4743,16 +4747,16 @@
         <v>32</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>32</v>
@@ -4764,7 +4768,7 @@
         <v>32</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>32</v>
@@ -4772,14 +4776,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4798,16 +4802,16 @@
         <v>32</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4857,7 +4861,7 @@
         <v>32</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>33</v>
@@ -4869,7 +4873,7 @@
         <v>32</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>32</v>
@@ -4878,7 +4882,7 @@
         <v>32</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>32</v>
@@ -4886,14 +4890,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4906,25 +4910,25 @@
         <v>32</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>32</v>
@@ -4973,7 +4977,7 @@
         <v>32</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>33</v>
@@ -4985,7 +4989,7 @@
         <v>32</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>32</v>
@@ -4994,7 +4998,7 @@
         <v>32</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>32</v>
@@ -5002,10 +5006,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5013,10 +5017,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>32</v>
@@ -5025,16 +5029,16 @@
         <v>32</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5061,13 +5065,13 @@
         <v>32</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>32</v>
@@ -5085,19 +5089,19 @@
         <v>32</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>32</v>
@@ -5114,10 +5118,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5125,10 +5129,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>32</v>
@@ -5137,19 +5141,19 @@
         <v>32</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5199,19 +5203,19 @@
         <v>32</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>32</v>
@@ -5228,10 +5232,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5242,7 +5246,7 @@
         <v>33</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>32</v>
@@ -5251,16 +5255,16 @@
         <v>32</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5311,19 +5315,19 @@
         <v>32</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>32</v>
@@ -5340,10 +5344,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5354,7 +5358,7 @@
         <v>33</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>32</v>
@@ -5363,16 +5367,16 @@
         <v>32</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5423,19 +5427,19 @@
         <v>32</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>32</v>
@@ -5452,10 +5456,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5466,7 +5470,7 @@
         <v>33</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>32</v>
@@ -5475,16 +5479,16 @@
         <v>32</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5535,19 +5539,19 @@
         <v>32</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>32</v>
@@ -5564,10 +5568,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5578,7 +5582,7 @@
         <v>33</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>32</v>
@@ -5587,16 +5591,16 @@
         <v>32</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5647,19 +5651,19 @@
         <v>32</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>32</v>
@@ -5676,10 +5680,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5690,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>32</v>
@@ -5699,16 +5703,16 @@
         <v>32</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5759,19 +5763,19 @@
         <v>32</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>32</v>
@@ -5788,10 +5792,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5802,7 +5806,7 @@
         <v>33</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>32</v>
@@ -5814,13 +5818,13 @@
         <v>32</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5871,16 +5875,16 @@
         <v>32</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>32</v>
@@ -5892,7 +5896,7 @@
         <v>32</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>32</v>
@@ -5900,14 +5904,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -5926,16 +5930,16 @@
         <v>32</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -5985,7 +5989,7 @@
         <v>32</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>33</v>
@@ -5997,7 +6001,7 @@
         <v>32</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>32</v>
@@ -6006,7 +6010,7 @@
         <v>32</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>32</v>
@@ -6014,14 +6018,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6034,25 +6038,25 @@
         <v>32</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>32</v>
@@ -6101,7 +6105,7 @@
         <v>32</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>33</v>
@@ -6113,7 +6117,7 @@
         <v>32</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>32</v>
@@ -6122,7 +6126,7 @@
         <v>32</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>32</v>
@@ -6130,10 +6134,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6141,10 +6145,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>32</v>
@@ -6153,16 +6157,16 @@
         <v>32</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6213,19 +6217,19 @@
         <v>32</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>32</v>
@@ -6242,10 +6246,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6256,7 +6260,7 @@
         <v>33</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>32</v>
@@ -6265,16 +6269,16 @@
         <v>32</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6325,19 +6329,19 @@
         <v>32</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>32</v>
@@ -6354,10 +6358,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6368,7 +6372,7 @@
         <v>33</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>32</v>
@@ -6377,19 +6381,19 @@
         <v>32</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6439,19 +6443,19 @@
         <v>32</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>32</v>
@@ -6468,10 +6472,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6482,7 +6486,7 @@
         <v>33</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>32</v>
@@ -6491,19 +6495,19 @@
         <v>32</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6553,19 +6557,19 @@
         <v>32</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>32</v>
@@ -6582,10 +6586,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6596,7 +6600,7 @@
         <v>33</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>32</v>
@@ -6605,19 +6609,19 @@
         <v>32</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6667,13 +6671,13 @@
         <v>32</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>32</v>
@@ -6696,41 +6700,41 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>32</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>32</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6781,7 +6785,7 @@
         <v>32</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>33</v>
@@ -6793,7 +6797,7 @@
         <v>32</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>32</v>
@@ -6810,10 +6814,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6824,7 +6828,7 @@
         <v>33</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>32</v>
@@ -6836,13 +6840,13 @@
         <v>32</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6893,16 +6897,16 @@
         <v>32</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>32</v>
@@ -6914,7 +6918,7 @@
         <v>32</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>32</v>
@@ -6922,14 +6926,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -6948,16 +6952,16 @@
         <v>32</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7007,7 +7011,7 @@
         <v>32</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>33</v>
@@ -7019,7 +7023,7 @@
         <v>32</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>32</v>
@@ -7028,7 +7032,7 @@
         <v>32</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>32</v>
@@ -7036,14 +7040,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7056,25 +7060,25 @@
         <v>32</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>32</v>
@@ -7123,7 +7127,7 @@
         <v>32</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>33</v>
@@ -7135,7 +7139,7 @@
         <v>32</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>32</v>
@@ -7144,7 +7148,7 @@
         <v>32</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>32</v>
@@ -7152,10 +7156,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7175,16 +7179,16 @@
         <v>32</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7235,7 +7239,7 @@
         <v>32</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>33</v>
@@ -7247,7 +7251,7 @@
         <v>32</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>32</v>
@@ -7264,10 +7268,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7278,7 +7282,7 @@
         <v>33</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>32</v>
@@ -7287,19 +7291,19 @@
         <v>32</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7349,19 +7353,19 @@
         <v>32</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>32</v>
@@ -7378,10 +7382,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7392,7 +7396,7 @@
         <v>33</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>32</v>
@@ -7404,13 +7408,13 @@
         <v>32</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7461,28 +7465,28 @@
         <v>32</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>32</v>
@@ -7490,10 +7494,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7504,7 +7508,7 @@
         <v>33</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>32</v>
@@ -7513,16 +7517,16 @@
         <v>32</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7573,19 +7577,19 @@
         <v>32</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>32</v>
@@ -7602,10 +7606,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7616,7 +7620,7 @@
         <v>33</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>32</v>
@@ -7628,13 +7632,13 @@
         <v>32</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7685,16 +7689,16 @@
         <v>32</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>32</v>
@@ -7706,7 +7710,7 @@
         <v>32</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>32</v>
@@ -7714,14 +7718,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -7740,16 +7744,16 @@
         <v>32</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -7799,7 +7803,7 @@
         <v>32</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>33</v>
@@ -7811,7 +7815,7 @@
         <v>32</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>32</v>
@@ -7820,7 +7824,7 @@
         <v>32</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>32</v>
@@ -7828,14 +7832,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7848,25 +7852,25 @@
         <v>32</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>32</v>
@@ -7915,7 +7919,7 @@
         <v>32</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>33</v>
@@ -7927,7 +7931,7 @@
         <v>32</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>32</v>
@@ -7936,7 +7940,7 @@
         <v>32</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>32</v>
@@ -7944,10 +7948,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7958,7 +7962,7 @@
         <v>33</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>32</v>
@@ -7967,19 +7971,19 @@
         <v>32</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8005,13 +8009,13 @@
         <v>32</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>32</v>
@@ -8029,19 +8033,19 @@
         <v>32</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>32</v>
@@ -8058,10 +8062,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8072,7 +8076,7 @@
         <v>33</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>32</v>
@@ -8081,19 +8085,19 @@
         <v>32</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8143,19 +8147,19 @@
         <v>32</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>32</v>
@@ -8172,10 +8176,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8186,7 +8190,7 @@
         <v>33</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>32</v>
@@ -8195,16 +8199,16 @@
         <v>32</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8255,19 +8259,19 @@
         <v>32</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>32</v>
@@ -8284,10 +8288,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8298,7 +8302,7 @@
         <v>33</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>32</v>
@@ -8310,13 +8314,13 @@
         <v>32</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8367,16 +8371,16 @@
         <v>32</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>32</v>
@@ -8388,7 +8392,7 @@
         <v>32</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>32</v>
@@ -8396,14 +8400,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8422,16 +8426,16 @@
         <v>32</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8481,7 +8485,7 @@
         <v>32</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>33</v>
@@ -8493,7 +8497,7 @@
         <v>32</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>32</v>
@@ -8502,7 +8506,7 @@
         <v>32</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>32</v>
@@ -8510,14 +8514,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8530,25 +8534,25 @@
         <v>32</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>32</v>
@@ -8597,7 +8601,7 @@
         <v>32</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>33</v>
@@ -8609,7 +8613,7 @@
         <v>32</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>32</v>
@@ -8618,7 +8622,7 @@
         <v>32</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>32</v>
@@ -8626,10 +8630,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8637,10 +8641,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>32</v>
@@ -8649,16 +8653,16 @@
         <v>32</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8685,13 +8689,13 @@
         <v>32</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>32</v>
@@ -8709,19 +8713,19 @@
         <v>32</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>32</v>
@@ -8738,10 +8742,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8749,10 +8753,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>32</v>
@@ -8761,19 +8765,19 @@
         <v>32</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -8823,19 +8827,19 @@
         <v>32</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>32</v>
@@ -8852,10 +8856,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8866,7 +8870,7 @@
         <v>33</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>32</v>
@@ -8875,16 +8879,16 @@
         <v>32</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8935,19 +8939,19 @@
         <v>32</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>32</v>
@@ -8964,10 +8968,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8978,7 +8982,7 @@
         <v>33</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>32</v>
@@ -8987,16 +8991,16 @@
         <v>32</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9047,19 +9051,19 @@
         <v>32</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>32</v>
@@ -9076,10 +9080,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9090,7 +9094,7 @@
         <v>33</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>32</v>
@@ -9099,16 +9103,16 @@
         <v>32</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9159,19 +9163,19 @@
         <v>32</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>32</v>
@@ -9188,10 +9192,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9202,7 +9206,7 @@
         <v>33</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>32</v>
@@ -9211,16 +9215,16 @@
         <v>32</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9271,19 +9275,19 @@
         <v>32</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>32</v>
@@ -9300,10 +9304,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9314,7 +9318,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>32</v>
@@ -9323,16 +9327,16 @@
         <v>32</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9383,19 +9387,19 @@
         <v>32</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>32</v>
@@ -9412,10 +9416,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9426,7 +9430,7 @@
         <v>33</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>32</v>
@@ -9438,13 +9442,13 @@
         <v>32</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9495,16 +9499,16 @@
         <v>32</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>32</v>
@@ -9516,7 +9520,7 @@
         <v>32</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>32</v>
@@ -9524,14 +9528,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -9550,16 +9554,16 @@
         <v>32</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -9609,7 +9613,7 @@
         <v>32</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>33</v>
@@ -9621,7 +9625,7 @@
         <v>32</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>32</v>
@@ -9630,7 +9634,7 @@
         <v>32</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>32</v>
@@ -9638,14 +9642,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -9658,25 +9662,25 @@
         <v>32</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>32</v>
@@ -9725,7 +9729,7 @@
         <v>32</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>33</v>
@@ -9737,7 +9741,7 @@
         <v>32</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>32</v>
@@ -9746,7 +9750,7 @@
         <v>32</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>32</v>
@@ -9754,10 +9758,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9765,10 +9769,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>32</v>
@@ -9777,16 +9781,16 @@
         <v>32</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9837,19 +9841,19 @@
         <v>32</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>32</v>
@@ -9866,10 +9870,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9880,7 +9884,7 @@
         <v>33</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>32</v>
@@ -9889,16 +9893,16 @@
         <v>32</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -9949,19 +9953,19 @@
         <v>32</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>32</v>
@@ -9978,10 +9982,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9992,7 +9996,7 @@
         <v>33</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>32</v>
@@ -10001,19 +10005,19 @@
         <v>32</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10063,19 +10067,19 @@
         <v>32</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>32</v>
@@ -10092,10 +10096,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10106,7 +10110,7 @@
         <v>33</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>32</v>
@@ -10115,19 +10119,19 @@
         <v>32</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10177,19 +10181,19 @@
         <v>32</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>32</v>
@@ -10206,10 +10210,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10220,7 +10224,7 @@
         <v>33</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>32</v>
@@ -10229,19 +10233,19 @@
         <v>32</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10291,13 +10295,13 @@
         <v>32</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>32</v>
@@ -10320,41 +10324,41 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>32</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>34</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>32</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10405,7 +10409,7 @@
         <v>32</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>33</v>
@@ -10417,7 +10421,7 @@
         <v>32</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>32</v>
@@ -10434,10 +10438,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10448,7 +10452,7 @@
         <v>33</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>32</v>
@@ -10460,13 +10464,13 @@
         <v>32</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10517,16 +10521,16 @@
         <v>32</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>32</v>
@@ -10538,7 +10542,7 @@
         <v>32</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>32</v>
@@ -10546,14 +10550,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -10572,16 +10576,16 @@
         <v>32</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -10631,7 +10635,7 @@
         <v>32</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>33</v>
@@ -10643,7 +10647,7 @@
         <v>32</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>32</v>
@@ -10652,7 +10656,7 @@
         <v>32</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>32</v>
@@ -10660,14 +10664,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -10680,25 +10684,25 @@
         <v>32</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>32</v>
@@ -10747,7 +10751,7 @@
         <v>32</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>33</v>
@@ -10759,7 +10763,7 @@
         <v>32</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>32</v>
@@ -10768,7 +10772,7 @@
         <v>32</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>32</v>
@@ -10776,10 +10780,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10799,16 +10803,16 @@
         <v>32</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>35</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10859,7 +10863,7 @@
         <v>32</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>33</v>
@@ -10871,7 +10875,7 @@
         <v>32</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>32</v>
@@ -10888,10 +10892,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10902,7 +10906,7 @@
         <v>33</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>32</v>
@@ -10911,19 +10915,19 @@
         <v>32</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -10973,19 +10977,19 @@
         <v>32</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>32</v>
@@ -11002,10 +11006,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11016,7 +11020,7 @@
         <v>33</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>32</v>
@@ -11025,16 +11029,16 @@
         <v>32</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11085,16 +11089,16 @@
         <v>32</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>32</v>
@@ -11114,10 +11118,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11128,7 +11132,7 @@
         <v>33</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>32</v>
@@ -11137,16 +11141,16 @@
         <v>32</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11197,19 +11201,19 @@
         <v>32</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>32</v>
@@ -11226,10 +11230,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11240,7 +11244,7 @@
         <v>33</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>32</v>
@@ -11252,13 +11256,13 @@
         <v>32</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11309,16 +11313,16 @@
         <v>32</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>32</v>
@@ -11330,7 +11334,7 @@
         <v>32</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>32</v>
@@ -11338,14 +11342,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -11364,16 +11368,16 @@
         <v>32</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -11423,7 +11427,7 @@
         <v>32</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>33</v>
@@ -11435,7 +11439,7 @@
         <v>32</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>32</v>
@@ -11444,7 +11448,7 @@
         <v>32</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>32</v>
@@ -11452,14 +11456,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -11472,25 +11476,25 @@
         <v>32</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>32</v>
@@ -11539,7 +11543,7 @@
         <v>32</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>33</v>
@@ -11551,7 +11555,7 @@
         <v>32</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>32</v>
@@ -11560,7 +11564,7 @@
         <v>32</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>32</v>
@@ -11568,10 +11572,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11582,7 +11586,7 @@
         <v>33</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>32</v>
@@ -11591,19 +11595,19 @@
         <v>32</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -11629,13 +11633,13 @@
         <v>32</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>32</v>
@@ -11653,19 +11657,19 @@
         <v>32</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>32</v>
@@ -11682,10 +11686,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11696,7 +11700,7 @@
         <v>33</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>32</v>
@@ -11705,19 +11709,19 @@
         <v>32</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -11767,19 +11771,19 @@
         <v>32</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>32</v>
@@ -11796,10 +11800,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11810,7 +11814,7 @@
         <v>33</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>32</v>
@@ -11819,16 +11823,16 @@
         <v>32</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -11879,19 +11883,19 @@
         <v>32</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>32</v>
@@ -11908,10 +11912,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11922,7 +11926,7 @@
         <v>33</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>32</v>
@@ -11934,13 +11938,13 @@
         <v>32</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -11991,16 +11995,16 @@
         <v>32</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>32</v>
@@ -12012,7 +12016,7 @@
         <v>32</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>32</v>
@@ -12020,14 +12024,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -12046,16 +12050,16 @@
         <v>32</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -12105,7 +12109,7 @@
         <v>32</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>33</v>
@@ -12117,7 +12121,7 @@
         <v>32</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>32</v>
@@ -12126,7 +12130,7 @@
         <v>32</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>32</v>
@@ -12134,14 +12138,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -12154,25 +12158,25 @@
         <v>32</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>32</v>
@@ -12221,7 +12225,7 @@
         <v>32</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>33</v>
@@ -12233,7 +12237,7 @@
         <v>32</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>32</v>
@@ -12242,7 +12246,7 @@
         <v>32</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>32</v>
@@ -12250,10 +12254,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12261,10 +12265,10 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>32</v>
@@ -12273,16 +12277,16 @@
         <v>32</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12309,13 +12313,13 @@
         <v>32</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>32</v>
@@ -12333,19 +12337,19 @@
         <v>32</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>32</v>
@@ -12362,10 +12366,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12373,10 +12377,10 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>32</v>
@@ -12385,19 +12389,19 @@
         <v>32</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -12447,19 +12451,19 @@
         <v>32</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>32</v>
@@ -12476,10 +12480,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12490,7 +12494,7 @@
         <v>33</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>32</v>
@@ -12499,16 +12503,16 @@
         <v>32</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12559,19 +12563,19 @@
         <v>32</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>32</v>
@@ -12588,10 +12592,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12602,7 +12606,7 @@
         <v>33</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>32</v>
@@ -12611,16 +12615,16 @@
         <v>32</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -12671,19 +12675,19 @@
         <v>32</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>32</v>
@@ -12700,10 +12704,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12714,7 +12718,7 @@
         <v>33</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>32</v>
@@ -12723,16 +12727,16 @@
         <v>32</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -12783,19 +12787,19 @@
         <v>32</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>32</v>
@@ -12812,10 +12816,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12826,7 +12830,7 @@
         <v>33</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>32</v>
@@ -12835,16 +12839,16 @@
         <v>32</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12895,19 +12899,19 @@
         <v>32</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>32</v>
@@ -12924,10 +12928,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -12938,7 +12942,7 @@
         <v>33</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>32</v>
@@ -12947,16 +12951,16 @@
         <v>32</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -13007,19 +13011,19 @@
         <v>32</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>32</v>
@@ -13036,10 +13040,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13050,7 +13054,7 @@
         <v>33</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>32</v>
@@ -13062,13 +13066,13 @@
         <v>32</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13119,16 +13123,16 @@
         <v>32</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>32</v>
@@ -13140,7 +13144,7 @@
         <v>32</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>32</v>
@@ -13148,14 +13152,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -13174,16 +13178,16 @@
         <v>32</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -13233,7 +13237,7 @@
         <v>32</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>33</v>
@@ -13245,7 +13249,7 @@
         <v>32</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>32</v>
@@ -13254,7 +13258,7 @@
         <v>32</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>32</v>
@@ -13262,14 +13266,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -13282,25 +13286,25 @@
         <v>32</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>32</v>
@@ -13349,7 +13353,7 @@
         <v>32</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>33</v>
@@ -13361,7 +13365,7 @@
         <v>32</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>32</v>
@@ -13370,7 +13374,7 @@
         <v>32</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>32</v>
@@ -13378,10 +13382,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13389,10 +13393,10 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>32</v>
@@ -13401,16 +13405,16 @@
         <v>32</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -13461,19 +13465,19 @@
         <v>32</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>32</v>
@@ -13490,10 +13494,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13504,7 +13508,7 @@
         <v>33</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>32</v>
@@ -13513,16 +13517,16 @@
         <v>32</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -13573,19 +13577,19 @@
         <v>32</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>32</v>
@@ -13602,10 +13606,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13616,7 +13620,7 @@
         <v>33</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>32</v>
@@ -13625,19 +13629,19 @@
         <v>32</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -13687,19 +13691,19 @@
         <v>32</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>32</v>
@@ -13716,10 +13720,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13730,7 +13734,7 @@
         <v>33</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>32</v>
@@ -13739,19 +13743,19 @@
         <v>32</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -13801,19 +13805,19 @@
         <v>32</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>32</v>
@@ -13830,10 +13834,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13844,7 +13848,7 @@
         <v>33</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>32</v>
@@ -13853,19 +13857,19 @@
         <v>32</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -13915,13 +13919,13 @@
         <v>32</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>32</v>
@@ -13944,10 +13948,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13958,7 +13962,7 @@
         <v>33</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>32</v>
@@ -13967,22 +13971,22 @@
         <v>32</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>32</v>
@@ -14031,19 +14035,19 @@
         <v>32</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>32</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>32</v>
@@ -14060,10 +14064,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14074,7 +14078,7 @@
         <v>33</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>32</v>
@@ -14083,19 +14087,19 @@
         <v>32</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -14145,16 +14149,16 @@
         <v>32</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>32</v>
